--- a/biology/Biochimie/Phytochélatine/Phytochélatine.xlsx
+++ b/biology/Biochimie/Phytochélatine/Phytochélatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phytoch%C3%A9latine</t>
+          <t>Phytochélatine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les  phytochélatines (PCs) sont (comme les métallothionéines (MT) et certains acides organiques) des agents de chélation naturels, c'est-à-dire capables de fixer les métaux et métalloïdes. Les phytochélatines sont responsables de la tolérance des plantes aux ions métalliques notamment au cadmium (Cd2+), ainsi que de certaines algues ou bactéries photosynthétiques présentes dans le plancton ou dans certains biofilms[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les  phytochélatines (PCs) sont (comme les métallothionéines (MT) et certains acides organiques) des agents de chélation naturels, c'est-à-dire capables de fixer les métaux et métalloïdes. Les phytochélatines sont responsables de la tolérance des plantes aux ions métalliques notamment au cadmium (Cd2+), ainsi que de certaines algues ou bactéries photosynthétiques présentes dans le plancton ou dans certains biofilms. 
 Elles participent à l'autoépuration des milieux (phytoépuration en particulier, à la séquestration géologique de métaux, mais aussi aux phénomènes de bioturbation et de bioconcentration de métaux et radionucléides dans le réseau trophique et la chaîne alimentaire.
 Les phytochélatines ont été isolées pour la première fois en 1985 à partir de cellules des cultures en suspension.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phytoch%C3%A9latine</t>
+          <t>Phytochélatine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Nature des phytochélatines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Biochimiquement parlant, les phytochélatines sont des polypeptides. Leur poids moléculaire est compris entre 1,5 et 4 kDa et leur chaîne principale possède une répétition du dipeptide γ-Glu-Cys suivi par le terminal Gly donc, la structure de base des phytochélatines est (γ-Glu-Cys)n-Gly où n varie entre deux et onze. 
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phytoch%C3%A9latine</t>
+          <t>Phytochélatine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Synthèse des phytochélatines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est réalisée à partir d’une enzyme, la gamma-glutamylcystéine dipeptidyl transpeptidase, communément appelée la phytochélatine synthase (PCS, identifiée et caractérisée pour la première fois en 1999). 
 Cette enzyme utilise le glutathion (GSH), qui fournit des groupements γ-Glu-Cys-Gly, afin de synthétiser la phytochélatine. En résumé, cette synthèse peut être décrite comme :
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phytoch%C3%A9latine</t>
+          <t>Phytochélatine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Techniques analytiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs techniques analytiques permettent la détermination des phytochélatines (Cf. tableau ci-dessous). Le choix de la méthode varie selon la « matrice ».  
 La technique analytique la plus sensible pour détecter les phytochélatines dans les phytoplanctons des eaux naturelles est celle de HPLC couplée d'un détecteur de fluorescence dont la limite de détection est de l’ordre de pM.
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phytoch%C3%A9latine</t>
+          <t>Phytochélatine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Détection des phytochélatines dans les phytoplanctons des eaux naturelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour  faire l'analyse des phytochélatines, on doit passer par les étapes suivantes :
 échantillonnage, filtration de l'échantillon, extraction des thiols, réduction des groupements thiol, dérivatisation des thiols, analyse des dérivées thiol par HPLC.
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Phytoch%C3%A9latine</t>
+          <t>Phytochélatine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Analyse des thiols par HPLC</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La HPLC en phase inversée (colonne C-18) est la meilleure technique pour la séparation des PCs dont les deux pompes (Merck-Hitachi Models L-6200 et L-6000), la valve d’injection(100-µL), le détecteur à fluorescence (FD-300, Dionex), la longueur d’onde d’excitation est 380nm et celle d’émission 470nm, la phase mobile est formée par un gradient de concentration (solvant A est l’eau, solvant B est l’acetonitrile): 0–13 min, 10–21% B; 13–33 min, 21–35% B;33–40 min, 35–100% B; 40–50 min, isocratique 100% B;50–65 min, 100–10% B. finalement le débit est de 1.0 mL/min. Toutes ces conditions chromatographiques sont produites par un « single run » dont le chromatogramme obtenu est le suivant :
 La limite de détection pour le GSH et le PC2 sont respectivement 1.0 et 0.9 pM pour un volume d’injection de 100µL.
